--- a/Eq1.xlsx
+++ b/Eq1.xlsx
@@ -16,23 +16,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
   <si>
     <t>x</t>
   </si>
   <si>
     <t>f(x)</t>
   </si>
-  <si>
-    <t>Root:</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000000"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -88,7 +88,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -100,10 +100,34 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -400,19 +424,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:P16"/>
+  <dimension ref="B3:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="6.140625" customWidth="1"/>
-    <col min="5" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="6.140625" customWidth="1"/>
-    <col min="8" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.140625" customWidth="1"/>
     <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" customWidth="1"/>
@@ -422,7 +449,7 @@
     <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16">
+    <row r="3" spans="2:12">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,512 +474,558 @@
       <c r="L3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16">
+    </row>
+    <row r="4" spans="2:12">
       <c r="B4" s="2">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="C4" s="6">
-        <f>B4^3+2*B4^2-B4-1</f>
-        <v>-0.28699999999999815</v>
+        <v>-5</v>
+      </c>
+      <c r="C4" s="2">
+        <f>2*B4^3-3* B4^2-3*B4+1</f>
+        <v>-309</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2">
-        <v>-2.25</v>
-      </c>
-      <c r="F4" s="6">
-        <f>E4^3+2*E4^2-E4-1</f>
-        <v>-1.5625E-2</v>
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <f>2*E4^3-3* E4^2-3*E4+1</f>
+        <v>1</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="4">
-        <v>-2.2469999999999999</v>
-      </c>
-      <c r="I4" s="5">
-        <f>H4^3+2*H4^2-H4-1</f>
-        <v>-1.0522300000026519E-4</v>
+      <c r="H4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I4" s="11">
+        <f>2*H4^3-3* H4^2-3*H4+1</f>
+        <v>0.29599999999999993</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="2">
-        <v>-2.2469999999999999</v>
-      </c>
-      <c r="L4" s="6">
-        <f>K4^3+2*K4^2-K4-1</f>
-        <v>-1.0522300000026519E-4</v>
-      </c>
-      <c r="N4" s="5">
-        <v>-2.2469800000000002</v>
-      </c>
-      <c r="O4" s="5">
-        <f>N4^3+2*N4^2-N4-1</f>
-        <v>-2.0443563930605535E-6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16">
+        <v>0.27</v>
+      </c>
+      <c r="L4" s="13">
+        <f>2*K4^3-3* K4^2-3*K4+1</f>
+        <v>1.0665999999999953E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
       <c r="B5" s="2">
-        <f>B4+0.01</f>
-        <v>-2.29</v>
-      </c>
-      <c r="C5" s="6">
-        <f t="shared" ref="C5:C14" si="0">B5^3+2*B5^2-B5-1</f>
-        <v>-0.23078900000000058</v>
+        <v>-4</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" ref="C5:C14" si="0">2*B5^3-3* B5^2-3*B5+1</f>
+        <v>-163</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2">
-        <f>E4+0.001</f>
-        <v>-2.2490000000000001</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" ref="F5:F14" si="1">E5^3+2*E5^2-E5-1</f>
-        <v>-1.0442249000000903E-2</v>
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" ref="F5:F14" si="1">2*E5^3-3* E5^2-3*E5+1</f>
+        <v>0.67199999999999993</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="4">
-        <f>H4+0.0001</f>
-        <v>-2.2468999999999997</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" ref="I5:I14" si="2">H5^3+2*H5^2-H5-1</f>
-        <v>4.106322910018001E-4</v>
+      <c r="H5" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="I5" s="11">
+        <f t="shared" ref="I5:I14" si="2">2*H5^3-3* H5^2-3*H5+1</f>
+        <v>0.25622200000000006</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="2">
-        <f>K4+0.00001</f>
-        <v>-2.2469899999999998</v>
-      </c>
-      <c r="L5" s="6">
-        <f t="shared" ref="L5:L14" si="3">K5^3+2*K5^2-K5-1</f>
-        <v>-5.3633204098790799E-5</v>
-      </c>
-      <c r="N5" s="5">
-        <f>N4+0.000001</f>
-        <v>-2.2469790000000001</v>
-      </c>
-      <c r="O5" s="5">
-        <f t="shared" ref="O5:O14" si="4">N5^3+2*N5^2-N5-1</f>
-        <v>3.1144762275836513E-6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="L5" s="13">
+        <f t="shared" ref="L5:L14" si="3">2*K5^3-3* K5^2-3*K5+1</f>
+        <v>6.4820219999999207E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
       <c r="B6" s="2">
-        <f t="shared" ref="B6:B33" si="5">B5+0.01</f>
-        <v>-2.2800000000000002</v>
-      </c>
-      <c r="C6" s="6">
+        <v>-3</v>
+      </c>
+      <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>-0.1755520000000006</v>
+        <v>-71</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="2">
-        <f t="shared" ref="E6:E14" si="6">E5+0.001</f>
-        <v>-2.2480000000000002</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="E6" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="10">
         <f t="shared" si="1"/>
-        <v>-5.2689920000004165E-3</v>
+        <v>0.29599999999999993</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="2">
-        <f t="shared" ref="H6:H14" si="7">H5+0.0001</f>
-        <v>-2.2467999999999995</v>
-      </c>
-      <c r="I6" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="I6" s="11">
         <f t="shared" si="2"/>
-        <v>9.2639276800188242E-4</v>
+        <v>0.21609599999999995</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="4">
-        <f t="shared" ref="K6:K14" si="8">K5+0.00001</f>
-        <v>-2.2469799999999998</v>
-      </c>
-      <c r="L6" s="5">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="L6" s="14">
         <f t="shared" si="3"/>
-        <v>-2.044356389951929E-6</v>
-      </c>
-      <c r="N6" s="6">
-        <f t="shared" ref="N6:N14" si="9">N5+0.000001</f>
-        <v>-2.2469779999999999</v>
-      </c>
-      <c r="O6" s="6">
-        <f t="shared" si="4"/>
-        <v>8.2732993678114042E-6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16">
+        <v>2.2952959999998912E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
       <c r="B7" s="2">
-        <f t="shared" si="5"/>
-        <v>-2.2700000000000005</v>
-      </c>
-      <c r="C7" s="6">
+        <v>-2</v>
+      </c>
+      <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>-0.12128300000000269</v>
+        <v>-21</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="4">
-        <f t="shared" si="6"/>
-        <v>-2.2470000000000003</v>
-      </c>
-      <c r="F7" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="F7" s="10">
         <f t="shared" si="1"/>
-        <v>-1.0522300000159746E-4</v>
+        <v>-0.11599999999999988</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="2">
-        <f t="shared" si="7"/>
-        <v>-2.2466999999999993</v>
-      </c>
-      <c r="I7" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="I7" s="11">
         <f t="shared" si="2"/>
-        <v>1.4420584370040679E-3</v>
+        <v>0.17563399999999996</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="4">
-        <f t="shared" si="8"/>
-        <v>-2.2469699999999997</v>
-      </c>
-      <c r="L7" s="5">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="L7" s="14">
         <f t="shared" si="3"/>
-        <v>4.9543543128027778E-5</v>
-      </c>
-      <c r="N7" s="6">
-        <f t="shared" si="9"/>
-        <v>-2.2469769999999998</v>
-      </c>
-      <c r="O7" s="6">
-        <f t="shared" si="4"/>
-        <v>1.3432113024069992E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16">
+        <v>-1.8941660000000304E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
       <c r="B8" s="2">
-        <f t="shared" si="5"/>
-        <v>-2.2600000000000007</v>
-      </c>
-      <c r="C8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>-6.7976000000004255E-2</v>
+        <v>-1</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="4">
-        <f t="shared" si="6"/>
-        <v>-2.2460000000000004</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="E8" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="9">
         <f t="shared" si="1"/>
-        <v>5.0490639999978271E-3</v>
+        <v>-0.55200000000000027</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="2">
-        <f t="shared" si="7"/>
-        <v>-2.246599999999999</v>
-      </c>
-      <c r="I8" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="I8" s="11">
         <f t="shared" si="2"/>
-        <v>1.9576293040053372E-3</v>
+        <v>0.13484800000000008</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="2">
-        <f t="shared" si="8"/>
-        <v>-2.2469599999999996</v>
-      </c>
-      <c r="L8" s="6">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="L8" s="13">
         <f t="shared" si="3"/>
-        <v>1.0113049446580646E-4</v>
-      </c>
-      <c r="N8" s="6">
-        <f t="shared" si="9"/>
-        <v>-2.2469759999999996</v>
-      </c>
-      <c r="O8" s="6">
-        <f t="shared" si="4"/>
-        <v>1.8590917199912127E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16">
+        <v>-6.0863520000000726E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
       <c r="B9" s="4">
-        <f t="shared" si="5"/>
-        <v>-2.2500000000000009</v>
-      </c>
-      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
         <f t="shared" si="0"/>
-        <v>-1.5625000000004441E-2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2">
-        <f t="shared" si="6"/>
-        <v>-2.2450000000000006</v>
-      </c>
-      <c r="F9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="9">
         <f t="shared" si="1"/>
-        <v>1.0193874999996577E-2</v>
+        <v>-1</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="2">
-        <f t="shared" si="7"/>
-        <v>-2.2464999999999988</v>
-      </c>
-      <c r="I9" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="I9" s="11">
         <f t="shared" si="2"/>
-        <v>2.4731053750062237E-3</v>
+        <v>9.375E-2</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="2">
-        <f t="shared" si="8"/>
-        <v>-2.2469499999999996</v>
-      </c>
-      <c r="L9" s="6">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="L9" s="13">
         <f t="shared" si="3"/>
-        <v>1.5271649762693684E-4</v>
-      </c>
-      <c r="N9" s="6">
-        <f t="shared" si="9"/>
-        <v>-2.2469749999999995</v>
-      </c>
-      <c r="O9" s="6">
-        <f t="shared" si="4"/>
-        <v>2.3749711893561454E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16">
+        <v>-1.028125000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
       <c r="B10" s="4">
-        <f t="shared" si="5"/>
-        <v>-2.2400000000000011</v>
-      </c>
-      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
         <f t="shared" si="0"/>
-        <v>3.5775999999994035E-2</v>
+        <v>-3</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2">
-        <f t="shared" si="6"/>
-        <v>-2.2440000000000007</v>
-      </c>
-      <c r="F10" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F10" s="9">
         <f t="shared" si="1"/>
-        <v>1.5329215999996926E-2</v>
+        <v>-1.448</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="2">
-        <f t="shared" si="7"/>
-        <v>-2.2463999999999986</v>
-      </c>
-      <c r="I10" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="I10" s="11">
         <f t="shared" si="2"/>
-        <v>2.9884866560072609E-3</v>
+        <v>5.2351999999999954E-2</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="2">
-        <f t="shared" si="8"/>
-        <v>-2.2469399999999995</v>
-      </c>
-      <c r="L10" s="6">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="L10" s="13">
         <f t="shared" si="3"/>
-        <v>2.0430155261852434E-4</v>
-      </c>
-      <c r="N10" s="6">
-        <f t="shared" si="9"/>
-        <v>-2.2469739999999994</v>
-      </c>
-      <c r="O10" s="6">
-        <f t="shared" si="4"/>
-        <v>2.8908497105017972E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16">
+        <v>-1.4478847999999989E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
       <c r="B11" s="2">
-        <f t="shared" si="5"/>
-        <v>-2.2300000000000013</v>
-      </c>
-      <c r="C11" s="6">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>8.6232999999993787E-2</v>
+        <v>-1</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2">
-        <f t="shared" si="6"/>
-        <v>-2.2430000000000008</v>
-      </c>
-      <c r="F11" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="F11" s="9">
         <f t="shared" si="1"/>
-        <v>2.0455092999995816E-2</v>
+        <v>-1.8839999999999995</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="2">
-        <f t="shared" si="7"/>
-        <v>-2.2462999999999984</v>
-      </c>
-      <c r="I11" s="6">
+      <c r="H11" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="I11" s="12">
         <f t="shared" si="2"/>
-        <v>3.5037731530089822E-3</v>
+        <v>1.0665999999999953E-2</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="2">
-        <f t="shared" si="8"/>
-        <v>-2.2469299999999994</v>
-      </c>
-      <c r="L11" s="6">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="L11" s="13">
         <f t="shared" si="3"/>
-        <v>2.5588565944589803E-4</v>
-      </c>
-      <c r="N11" s="6">
-        <f t="shared" si="9"/>
-        <v>-2.2469729999999992</v>
-      </c>
-      <c r="O11" s="6">
-        <f t="shared" si="4"/>
-        <v>3.4067272834281681E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16">
+        <v>-1.8679134000000097E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
       <c r="B12" s="2">
-        <f t="shared" si="5"/>
-        <v>-2.2200000000000015</v>
-      </c>
-      <c r="C12" s="6">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>0.1357519999999921</v>
+        <v>19</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2">
-        <f t="shared" si="6"/>
-        <v>-2.2420000000000009</v>
-      </c>
-      <c r="F12" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F12" s="9">
         <f t="shared" si="1"/>
-        <v>2.5571511999995522E-2</v>
+        <v>-2.2960000000000003</v>
       </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="2">
-        <f t="shared" si="7"/>
-        <v>-2.2461999999999982</v>
-      </c>
-      <c r="I12" s="6">
+      <c r="H12" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I12" s="12">
         <f t="shared" si="2"/>
-        <v>4.0189648720083682E-3</v>
+        <v>-3.1296000000000213E-2</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="2">
-        <f t="shared" si="8"/>
-        <v>-2.2469199999999994</v>
-      </c>
-      <c r="L12" s="6">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="L12" s="13">
         <f t="shared" si="3"/>
-        <v>3.0746881811616333E-4</v>
-      </c>
-      <c r="N12" s="6">
-        <f t="shared" si="9"/>
-        <v>-2.2469719999999991</v>
-      </c>
-      <c r="O12" s="6">
-        <f t="shared" si="4"/>
-        <v>3.9226039083128939E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16">
+        <v>-2.2882096000000018E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
       <c r="B13" s="2">
-        <f t="shared" si="5"/>
-        <v>-2.2100000000000017</v>
-      </c>
-      <c r="C13" s="6">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>0.18433899999999159</v>
+        <v>69</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="2">
-        <f t="shared" si="6"/>
-        <v>-2.241000000000001</v>
-      </c>
-      <c r="F13" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="F13" s="9">
         <f t="shared" si="1"/>
-        <v>3.0678478999994763E-2</v>
+        <v>-2.6720000000000002</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="2">
-        <f t="shared" si="7"/>
-        <v>-2.246099999999998</v>
-      </c>
-      <c r="I13" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I13" s="11">
         <f t="shared" si="2"/>
-        <v>4.534061819009505E-3</v>
+        <v>-7.3521999999999865E-2</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="2">
-        <f t="shared" si="8"/>
-        <v>-2.2469099999999993</v>
-      </c>
-      <c r="L13" s="6">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="L13" s="13">
         <f t="shared" si="3"/>
-        <v>3.5905102863287297E-4</v>
-      </c>
-      <c r="N13" s="6">
-        <f t="shared" si="9"/>
-        <v>-2.2469709999999989</v>
-      </c>
-      <c r="O13" s="6">
-        <f t="shared" si="4"/>
-        <v>4.4384795849783387E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16">
+        <v>-2.7087722000000092E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
       <c r="B14" s="2">
-        <f t="shared" si="5"/>
-        <v>-2.200000000000002</v>
-      </c>
-      <c r="C14" s="6">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>0.23199999999999132</v>
+        <v>161</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2">
-        <f t="shared" si="6"/>
-        <v>-2.2400000000000011</v>
-      </c>
-      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9">
         <f t="shared" si="1"/>
-        <v>3.5775999999994035E-2</v>
+        <v>-3</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="2">
-        <f t="shared" si="7"/>
-        <v>-2.2459999999999978</v>
-      </c>
-      <c r="I14" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="I14" s="11">
         <f t="shared" si="2"/>
-        <v>5.0490640000111497E-3</v>
+        <v>-0.11599999999999988</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="2">
-        <f t="shared" si="8"/>
-        <v>-2.2468999999999992</v>
-      </c>
-      <c r="L14" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L14" s="13">
         <f t="shared" si="3"/>
-        <v>4.1063229100490872E-4</v>
-      </c>
-      <c r="N14" s="6">
-        <f t="shared" si="9"/>
-        <v>-2.2469699999999988</v>
-      </c>
-      <c r="O14" s="6">
+        <v>-3.1296000000000213E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="2">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="C17" s="7">
+        <f>2*B17^3-3* B17^2-3*B17+1</f>
+        <v>2.2952959999998912E-3</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.27250000000000002</v>
+      </c>
+      <c r="F17" s="6">
+        <f>2*E17^3-3* E17^2-3*E17+1</f>
+        <v>2.0090624999991036E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="2">
+        <v>0.27210000000000001</v>
+      </c>
+      <c r="C18" s="7">
+        <f t="shared" ref="C18:C27" si="4">2*B18^3-3* B18^2-3*B18+1</f>
+        <v>1.8764727219999777E-3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.27250999999999997</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" ref="F18:F27" si="5">2*E18^3-3* E18^2-3*E18+1</f>
+        <v>1.5901148850216984E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="2">
+        <v>0.2722</v>
+      </c>
+      <c r="C19" s="7">
         <f t="shared" si="4"/>
-        <v>4.954354313246867E-5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16">
-      <c r="N16" t="s">
-        <v>2</v>
-      </c>
-      <c r="O16">
-        <v>-2.2469749999999999</v>
-      </c>
-      <c r="P16">
-        <v>5.0000000000000004E-6</v>
+        <v>1.4576220960000885E-3</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.27251999999999998</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="5"/>
+        <v>1.1711645401601967E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="2">
+        <v>0.27229999999999999</v>
+      </c>
+      <c r="C20" s="7">
+        <f t="shared" si="4"/>
+        <v>1.0387441340000692E-3</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.27252999999999999</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="5"/>
+        <v>7.5221146554005358E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="2">
+        <v>0.27239999999999998</v>
+      </c>
+      <c r="C21" s="7">
+        <f t="shared" si="4"/>
+        <v>6.1983884800009825E-4</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.27254</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="5"/>
+        <v>3.3325566128006301E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="4">
+        <v>0.27250000000000002</v>
+      </c>
+      <c r="C22" s="8">
+        <f t="shared" si="4"/>
+        <v>2.0090624999991036E-4</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.27255000000000001</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="5"/>
+        <v>-8.5702872500981186E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="4">
+        <v>0.27260000000000001</v>
+      </c>
+      <c r="C23" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.1805364800009386E-4</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.27256000000000002</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="5"/>
+        <v>-5.0466413568095447E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="2">
+        <v>0.2727</v>
+      </c>
+      <c r="C24" s="7">
+        <f t="shared" si="4"/>
+        <v>-6.3704083399995781E-4</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.27256999999999998</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="5"/>
+        <v>-9.2362812813995276E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="2">
+        <v>0.27279999999999999</v>
+      </c>
+      <c r="C25" s="7">
+        <f t="shared" si="4"/>
+        <v>-1.056055295999947E-3</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.27257999999999999</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="5"/>
+        <v>-1.342594849758072E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="2">
+        <v>0.27289999999999998</v>
+      </c>
+      <c r="C26" s="7">
+        <f t="shared" si="4"/>
+        <v>-1.4750970219998827E-3</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.27259</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="5"/>
+        <v>-1.7615643004198489E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="2">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="C27" s="7">
+        <f t="shared" si="4"/>
+        <v>-1.8941660000000304E-3</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.27260000000000001</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="5"/>
+        <v>-2.1805364800009386E-4</v>
       </c>
     </row>
   </sheetData>

--- a/Eq1.xlsx
+++ b/Eq1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="2">
   <si>
     <t>x</t>
   </si>
@@ -28,13 +28,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,6 +46,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -88,7 +95,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -128,6 +135,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -424,22 +440,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:L27"/>
+  <dimension ref="B3:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" customWidth="1"/>
+    <col min="5" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" customWidth="1"/>
+    <col min="8" max="9" width="11.5703125" customWidth="1"/>
     <col min="10" max="10" width="5.140625" customWidth="1"/>
     <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" customWidth="1"/>
@@ -449,7 +462,7 @@
     <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:10">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,14 +481,8 @@
       <c r="I3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12">
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4" s="2">
         <v>-5</v>
       </c>
@@ -500,15 +507,8 @@
         <v>0.29599999999999993</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="L4" s="13">
-        <f>2*K4^3-3* K4^2-3*K4+1</f>
-        <v>1.0665999999999953E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12">
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" s="2">
         <v>-4</v>
       </c>
@@ -533,15 +533,8 @@
         <v>0.25622200000000006</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="2">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="L5" s="13">
-        <f t="shared" ref="L5:L14" si="3">2*K5^3-3* K5^2-3*K5+1</f>
-        <v>6.4820219999999207E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12">
+    </row>
+    <row r="6" spans="2:10">
       <c r="B6" s="2">
         <v>-3</v>
       </c>
@@ -566,15 +559,8 @@
         <v>0.21609599999999995</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="4">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="L6" s="14">
-        <f t="shared" si="3"/>
-        <v>2.2952959999998912E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12">
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="2">
         <v>-2</v>
       </c>
@@ -599,15 +585,8 @@
         <v>0.17563399999999996</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="4">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="L7" s="14">
-        <f t="shared" si="3"/>
-        <v>-1.8941660000000304E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12">
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="2">
         <v>-1</v>
       </c>
@@ -632,15 +611,8 @@
         <v>0.13484800000000008</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="2">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="L8" s="13">
-        <f t="shared" si="3"/>
-        <v>-6.0863520000000726E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9" s="4">
         <v>0</v>
       </c>
@@ -665,15 +637,8 @@
         <v>9.375E-2</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="2">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="L9" s="13">
-        <f t="shared" si="3"/>
-        <v>-1.028125000000002E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12">
+    </row>
+    <row r="10" spans="2:10">
       <c r="B10" s="4">
         <v>1</v>
       </c>
@@ -698,15 +663,8 @@
         <v>5.2351999999999954E-2</v>
       </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="2">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="L10" s="13">
-        <f t="shared" si="3"/>
-        <v>-1.4478847999999989E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12">
+    </row>
+    <row r="11" spans="2:10">
       <c r="B11" s="2">
         <v>2</v>
       </c>
@@ -731,15 +689,8 @@
         <v>1.0665999999999953E-2</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="2">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="L11" s="13">
-        <f t="shared" si="3"/>
-        <v>-1.8679134000000097E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12">
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" s="2">
         <v>3</v>
       </c>
@@ -764,15 +715,8 @@
         <v>-3.1296000000000213E-2</v>
       </c>
       <c r="J12" s="3"/>
-      <c r="K12" s="2">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="L12" s="13">
-        <f t="shared" si="3"/>
-        <v>-2.2882096000000018E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12">
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" s="2">
         <v>4</v>
       </c>
@@ -797,15 +741,8 @@
         <v>-7.3521999999999865E-2</v>
       </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="2">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="L13" s="13">
-        <f t="shared" si="3"/>
-        <v>-2.7087722000000092E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12">
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" s="2">
         <v>5</v>
       </c>
@@ -830,202 +767,385 @@
         <v>-0.11599999999999988</v>
       </c>
       <c r="J14" s="3"/>
-      <c r="K14" s="2">
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="C17" s="13">
+        <f>2*B17^3-3* B17^2-3*B17+1</f>
+        <v>1.0665999999999953E-2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="F17" s="7">
+        <f>2*E17^3-3* E17^2-3*E17+1</f>
+        <v>2.2952959999998912E-3</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.27250000000000002</v>
+      </c>
+      <c r="I17" s="6">
+        <f>2*H17^3-3* H17^2-3*H17+1</f>
+        <v>2.0090624999991036E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="2">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="C18" s="13">
+        <f t="shared" ref="C18:C27" si="3">2*B18^3-3* B18^2-3*B18+1</f>
+        <v>6.4820219999999207E-3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.27210000000000001</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" ref="F18:F27" si="4">2*E18^3-3* E18^2-3*E18+1</f>
+        <v>1.8764727219999777E-3</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.27250999999999997</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" ref="I18:I27" si="5">2*H18^3-3* H18^2-3*H18+1</f>
+        <v>1.5901148850216984E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="4">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="C19" s="14">
+        <f t="shared" si="3"/>
+        <v>2.2952959999998912E-3</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.2722</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="4"/>
+        <v>1.4576220960000885E-3</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.27251999999999998</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="5"/>
+        <v>1.1711645401601967E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="4">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="C20" s="14">
+        <f t="shared" si="3"/>
+        <v>-1.8941660000000304E-3</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.27229999999999999</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="4"/>
+        <v>1.0387441340000692E-3</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.27252999999999999</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="5"/>
+        <v>7.5221146554005358E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="2">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="C21" s="13">
+        <f t="shared" si="3"/>
+        <v>-6.0863520000000726E-3</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.27239999999999998</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="4"/>
+        <v>6.1983884800009825E-4</v>
+      </c>
+      <c r="H21" s="15">
+        <v>0.27254</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="5"/>
+        <v>3.3325566128006301E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="2">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="C22" s="13">
+        <f t="shared" si="3"/>
+        <v>-1.028125000000002E-2</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.27250000000000002</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="4"/>
+        <v>2.0090624999991036E-4</v>
+      </c>
+      <c r="H22" s="15">
+        <v>0.27255000000000001</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="5"/>
+        <v>-8.5702872500981186E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="2">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="C23" s="13">
+        <f t="shared" si="3"/>
+        <v>-1.4478847999999989E-2</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.27260000000000001</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.1805364800009386E-4</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.27256000000000002</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" si="5"/>
+        <v>-5.0466413568095447E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="2">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="C24" s="13">
+        <f t="shared" si="3"/>
+        <v>-1.8679134000000097E-2</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.2727</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="4"/>
+        <v>-6.3704083399995781E-4</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.27256999999999998</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="5"/>
+        <v>-9.2362812813995276E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="2">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="C25" s="13">
+        <f t="shared" si="3"/>
+        <v>-2.2882096000000018E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.27279999999999999</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" si="4"/>
+        <v>-1.056055295999947E-3</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.27257999999999999</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="5"/>
+        <v>-1.342594849758072E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="2">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="C26" s="13">
+        <f t="shared" si="3"/>
+        <v>-2.7087722000000092E-2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.27289999999999998</v>
+      </c>
+      <c r="F26" s="7">
+        <f t="shared" si="4"/>
+        <v>-1.4750970219998827E-3</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.27259</v>
+      </c>
+      <c r="I26" s="6">
+        <f t="shared" si="5"/>
+        <v>-1.7615643004198489E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L14" s="13">
+      <c r="C27" s="13">
         <f t="shared" si="3"/>
         <v>-3.1296000000000213E-2</v>
       </c>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="2">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="C17" s="7">
-        <f>2*B17^3-3* B17^2-3*B17+1</f>
-        <v>2.2952959999998912E-3</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.27250000000000002</v>
-      </c>
-      <c r="F17" s="6">
-        <f>2*E17^3-3* E17^2-3*E17+1</f>
-        <v>2.0090624999991036E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="2">
-        <v>0.27210000000000001</v>
-      </c>
-      <c r="C18" s="7">
-        <f t="shared" ref="C18:C27" si="4">2*B18^3-3* B18^2-3*B18+1</f>
-        <v>1.8764727219999777E-3</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.27250999999999997</v>
-      </c>
-      <c r="F18" s="6">
-        <f t="shared" ref="F18:F27" si="5">2*E18^3-3* E18^2-3*E18+1</f>
-        <v>1.5901148850216984E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="2">
-        <v>0.2722</v>
-      </c>
-      <c r="C19" s="7">
-        <f t="shared" si="4"/>
-        <v>1.4576220960000885E-3</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.27251999999999998</v>
-      </c>
-      <c r="F19" s="6">
-        <f t="shared" si="5"/>
-        <v>1.1711645401601967E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="2">
-        <v>0.27229999999999999</v>
-      </c>
-      <c r="C20" s="7">
-        <f t="shared" si="4"/>
-        <v>1.0387441340000692E-3</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.27252999999999999</v>
-      </c>
-      <c r="F20" s="6">
-        <f t="shared" si="5"/>
-        <v>7.5221146554005358E-5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="2">
-        <v>0.27239999999999998</v>
-      </c>
-      <c r="C21" s="7">
-        <f t="shared" si="4"/>
-        <v>6.1983884800009825E-4</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.27254</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" si="5"/>
-        <v>3.3325566128006301E-5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="4">
-        <v>0.27250000000000002</v>
-      </c>
-      <c r="C22" s="8">
-        <f t="shared" si="4"/>
-        <v>2.0090624999991036E-4</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.27255000000000001</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" si="5"/>
-        <v>-8.5702872500981186E-6</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="4">
-        <v>0.27260000000000001</v>
-      </c>
-      <c r="C23" s="8">
-        <f t="shared" si="4"/>
-        <v>-2.1805364800009386E-4</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.27256000000000002</v>
-      </c>
-      <c r="F23" s="6">
-        <f t="shared" si="5"/>
-        <v>-5.0466413568095447E-5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="2">
-        <v>0.2727</v>
-      </c>
-      <c r="C24" s="7">
-        <f t="shared" si="4"/>
-        <v>-6.3704083399995781E-4</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0.27256999999999998</v>
-      </c>
-      <c r="F24" s="6">
-        <f t="shared" si="5"/>
-        <v>-9.2362812813995276E-5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="2">
-        <v>0.27279999999999999</v>
-      </c>
-      <c r="C25" s="7">
-        <f t="shared" si="4"/>
-        <v>-1.056055295999947E-3</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0.27257999999999999</v>
-      </c>
-      <c r="F25" s="6">
-        <f t="shared" si="5"/>
-        <v>-1.342594849758072E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="2">
-        <v>0.27289999999999998</v>
-      </c>
-      <c r="C26" s="7">
-        <f t="shared" si="4"/>
-        <v>-1.4750970219998827E-3</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0.27259</v>
-      </c>
-      <c r="F26" s="6">
-        <f t="shared" si="5"/>
-        <v>-1.7615643004198489E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="2">
+      <c r="E27" s="2">
         <v>0.27300000000000002</v>
       </c>
-      <c r="C27" s="7">
+      <c r="F27" s="7">
         <f t="shared" si="4"/>
         <v>-1.8941660000000304E-3</v>
       </c>
-      <c r="E27" s="2">
+      <c r="H27" s="2">
         <v>0.27260000000000001</v>
       </c>
-      <c r="F27" s="6">
+      <c r="I27" s="6">
         <f t="shared" si="5"/>
         <v>-2.1805364800009386E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="2">
+        <v>0.27254</v>
+      </c>
+      <c r="C30" s="16">
+        <f>2*B30^3-3* B30^2-3*B30+1</f>
+        <v>3.3325566128006301E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="2">
+        <v>0.27254099999999998</v>
+      </c>
+      <c r="C31" s="16">
+        <f t="shared" ref="C31:C40" si="6">2*B31^3-3* B31^2-3*B31+1</f>
+        <v>2.9135993072859634E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="2">
+        <v>0.27254200000000001</v>
+      </c>
+      <c r="C32" s="16">
+        <f t="shared" si="6"/>
+        <v>2.4946417288229661E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="2">
+        <v>0.27254299999999998</v>
+      </c>
+      <c r="C33" s="16">
+        <f t="shared" si="6"/>
+        <v>2.0756838774116382E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="2">
+        <v>0.27254400000000001</v>
+      </c>
+      <c r="C34" s="16">
+        <f t="shared" si="6"/>
+        <v>1.6567257530297752E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="2">
+        <v>0.27254499999999998</v>
+      </c>
+      <c r="C35" s="16">
+        <f t="shared" si="6"/>
+        <v>1.2377673557439905E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="2">
+        <v>0.27254600000000001</v>
+      </c>
+      <c r="C36" s="16">
+        <f t="shared" si="6"/>
+        <v>8.1880868545436414E-6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="4">
+        <v>0.27254699999999998</v>
+      </c>
+      <c r="C37" s="17">
+        <f t="shared" si="6"/>
+        <v>3.9984974227191827E-6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="4">
+        <v>0.27254800000000001</v>
+      </c>
+      <c r="C38" s="17">
+        <f t="shared" si="6"/>
+        <v>-1.9109473892164885E-7</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="2">
+        <v>0.27254899999999999</v>
+      </c>
+      <c r="C39" s="16">
+        <f t="shared" si="6"/>
+        <v>-4.3806896297127196E-6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="2">
+        <v>0.27255000000000001</v>
+      </c>
+      <c r="C40" s="16">
+        <f t="shared" si="6"/>
+        <v>-8.5702872500981186E-6</v>
       </c>
     </row>
   </sheetData>
